--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840486</v>
+        <v>438336.2585840487</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006065</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.8531994405235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>102.3382270926889</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1610,25 +1610,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,22 +2123,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>83.03189205754171</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>98.10479885422595</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2214,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,76 +2315,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.4417619616646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,49 +2488,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2634,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2679,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>49.23554341427958</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>149.3442691106105</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>56.17030901074568</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2989,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>23.40849067511758</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3193,52 +3193,52 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3275,10 +3275,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>68.3854176612075</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16.35058969558315</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>60.94685044493492</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.19305615617957</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>31.77895718935895</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>121.7911906719549</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
         <v>817.1412885554689</v>
@@ -4656,10 +4656,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4790,16 +4790,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>592.9597988536757</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>418.5067695725487</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>269.5723599112974</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4890,13 +4890,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4926,7 +4926,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>761.1751358737438</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5075,16 +5075,16 @@
         <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5124,46 +5124,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5179,7 +5179,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C15" t="n">
         <v>817.1412885554689</v>
@@ -5367,10 +5367,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5631,13 +5631,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5701,13 +5701,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>292.8299288097498</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>118.3768995286228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>118.3768995286228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>118.3768995286228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
         <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5862,19 +5862,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>500.6814290152826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>292.8299288097498</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>292.8299288097498</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>634.6640077999109</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W24" t="n">
-        <v>391.2152311558108</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X24" t="n">
-        <v>183.363730950278</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
         <v>829.5248650203655</v>
@@ -6178,19 +6178,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6312,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>914.3242833750003</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>914.3242833750003</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>914.3242833750003</v>
       </c>
       <c r="U27" t="n">
-        <v>336.430889791532</v>
+        <v>914.3242833750003</v>
       </c>
       <c r="V27" t="n">
-        <v>336.430889791532</v>
+        <v>914.3242833750003</v>
       </c>
       <c r="W27" t="n">
-        <v>336.430889791532</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X27" t="n">
-        <v>336.430889791532</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="28">
@@ -6406,7 +6406,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.77296163243852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C30" t="n">
-        <v>76.77296163243852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D30" t="n">
-        <v>76.77296163243852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E30" t="n">
-        <v>76.77296163243852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.77296163243852</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="31">
@@ -6637,31 +6637,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>189.4606411592041</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>189.4606411592041</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>42.92608318608907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>42.92608318608907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6886,22 +6886,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6161971483371</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V35" t="n">
-        <v>728.6161971483371</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W35" t="n">
-        <v>728.6161971483371</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>343.9687549441752</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>195.0343452829239</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>35.79689027746844</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.38115216564972</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="37">
@@ -7120,16 +7120,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7217,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>492.4565854669654</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C39" t="n">
-        <v>318.0035561858384</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="D39" t="n">
-        <v>318.0035561858384</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="E39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7284,19 +7284,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>700.3080856724982</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X39" t="n">
-        <v>492.4565854669654</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y39" t="n">
-        <v>492.4565854669654</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.0360370837871</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>274.0360370837871</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>30.58726043968704</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>274.0360370837871</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.0360370837871</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>312.0389260854624</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>279.9389693285341</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
         <v>725.4530095217538</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="V42" t="n">
-        <v>555.4877027295624</v>
+        <v>813.1585848204618</v>
       </c>
       <c r="W42" t="n">
-        <v>312.0389260854624</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X42" t="n">
-        <v>312.0389260854624</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>312.0389260854624</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7606,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X44" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7731,19 +7731,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>485.4562706347935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8304,13 +8304,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,16 +8538,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,22 +8772,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,13 +9015,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>242.4075215744184</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,19 +9960,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,19 +22556,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22604,16 +22604,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>125.4575720412377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>69.0973563527908</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -23042,7 +23042,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,13 +23109,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.829496336780863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>225.414031377446</v>
+        <v>237.3633207320585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E13" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23498,25 +23498,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,7 +23574,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23832,7 +23832,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23871,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,22 +24011,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>83.50129159232563</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>46.96441353915793</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24102,13 +24102,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,13 +24203,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,28 +24251,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>133.509559394752</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24333,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>43.24093381563975</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,13 +24522,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,22 +24567,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.92229073836355</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>76.59711297036429</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24646,10 +24646,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>227.1458758085334</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,22 +24725,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>42.93285090213078</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,16 +24768,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>88.8989033826382</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24877,13 +24877,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,22 +24996,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>88.82695356137887</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25044,16 +25044,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25163,10 +25163,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>346.9173198539276</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25196,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>149.5179749360441</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25230,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>128.7186226978007</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25284,19 +25284,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,31 +25388,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>20.63881838194987</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25524,19 +25524,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>190.7481327159847</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,7 +25564,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7562331984329429</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>179.3857036041842</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25704,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>125.866123266042</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>22.29358612056512</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,7 +25764,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25801,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,13 +25919,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25953,16 +25953,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>23.278021721429</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674311</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="C2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91388.36989223277</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223276</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="K2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223279</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223283</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
         <v>91388.36989223279</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26525,40 +26525,40 @@
         <v>42927.56863076716</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076713</v>
+        <v>42927.5686307672</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076712</v>
+        <v>76555.16863076715</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076715</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>76555.16863076716</v>
       </c>
       <c r="I6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166096</v>
+        <v>13495.22603166092</v>
       </c>
       <c r="K6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="L6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76555.16863076715</v>
       </c>
       <c r="M6" t="n">
         <v>76555.16863076718</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076715</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076719</v>
+        <v>76555.16863076718</v>
       </c>
       <c r="P6" t="n">
         <v>76555.16863076715</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35024,13 +35024,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35258,16 +35258,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35735,13 +35735,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>99.8112771299739</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,19 +36680,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37078,10 +37078,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37394,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438336.2585840487</v>
+        <v>440041.0145983154</v>
       </c>
     </row>
     <row r="7">
@@ -668,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,64 +907,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>108.1960350243787</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,55 +1144,55 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1391,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V11" t="n">
-        <v>90.38893773807641</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1503,13 +1505,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,16 +1688,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -1734,10 +1736,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1935,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1944,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>100.0376190809312</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2041,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>241.0142888776591</v>
@@ -2090,64 +2092,64 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="T23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>69.03881051849277</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2457,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,70 +2554,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2643,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.23554341427958</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,10 +2885,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>21.03188713646763</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2989,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,13 +3031,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>52.42556848774763</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3165,13 +3167,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>203.2913221445022</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,13 +3350,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>16.35058969558315</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3390,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>132.9689388813999</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3518,58 +3520,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3588,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,23 +3739,23 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>149.3895849832727</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3913,52 +3915,52 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>190.3453970742848</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>34.66067414728066</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4366,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4483,10 +4485,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5121,13 +5123,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="13">
@@ -5179,16 +5181,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C14" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>962.2293816994886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U14" t="n">
-        <v>962.2293816994886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W14" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X14" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y14" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F15" t="n">
         <v>362.4348659156472</v>
@@ -5367,10 +5369,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5382,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y15" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="16">
@@ -5540,16 +5542,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
+        <v>577.2332497330343</v>
+      </c>
+      <c r="U17" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V17" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5628,16 +5630,16 @@
         <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="19">
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5938,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.90796037760316</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C24" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>23.90796037760316</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>23.90796037760316</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y24" t="n">
-        <v>23.90796037760316</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>502.6601697108322</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C27" t="n">
-        <v>328.2071404297052</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D27" t="n">
-        <v>179.2727307684539</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>914.3242833750003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>914.3242833750003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>914.3242833750003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>914.3242833750003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>914.3242833750003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>670.8755067309003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>670.8755067309003</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>670.8755067309003</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6406,25 +6408,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>132.7447050367114</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>132.7447050367114</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>132.7447050367114</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>362.4348659156472</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C30" t="n">
-        <v>362.4348659156472</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="D30" t="n">
-        <v>362.4348659156472</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="E30" t="n">
-        <v>362.4348659156472</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="F30" t="n">
-        <v>362.4348659156472</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>487.2836868729568</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>487.2836868729568</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y30" t="n">
-        <v>487.2836868729568</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.6850394389064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,22 +6803,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>587.3248651012614</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>518.4217842253022</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C36" t="n">
-        <v>343.9687549441752</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>195.0343452829239</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>35.79689027746844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="W36" t="n">
-        <v>518.4217842253022</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="X36" t="n">
-        <v>518.4217842253022</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="Y36" t="n">
-        <v>518.4217842253022</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7217,7 +7219,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>157.6713068207694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>533.6469426057913</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>533.6469426057913</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>325.8866438408374</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7451,10 +7453,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>813.1585848204618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>813.1585848204618</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>813.1585848204618</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>569.7098081763618</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
         <v>19.28114311021272</v>
@@ -7606,13 +7608,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>315.6850394389064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>72.23626279480629</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E44" t="n">
-        <v>72.23626279480629</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>802.5825927271064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7734,16 +7736,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,22 +7754,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>929.0463735436861</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>726.8597789024521</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>498.6361606388412</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>263.4840524070985</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>20.03527576299844</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
         <v>20.03527576299844</v>
@@ -7828,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9015,13 +9017,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,7 +9494,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9728,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11382,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N45" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>69.0973563527908</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23223,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V11" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,16 +23576,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23622,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23823,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23832,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>132.7629680684941</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>135.5284965833702</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23929,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>124.2586028933485</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.50129159232563</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24096,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="T23" t="n">
-        <v>160.679581861839</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>103.669688469823</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>133.509559394752</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24345,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24418,7 +24420,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24500,10 +24502,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.92229073836355</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24582,7 +24584,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>227.1458758085334</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,10 +24745,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.93285090213078</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24771,10 +24773,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>91.20355710002883</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24877,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24917,13 +24919,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>312.8473232832599</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>29.50926500492309</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>346.9173198539276</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,25 +25201,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,13 +25238,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>128.7186226978007</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25278,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>92.97244319957488</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25406,13 +25408,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25476,7 +25478,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>20.63881838194987</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>179.3857036041842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>22.29358612056512</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>354.4504772539638</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25992,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>137.0224969565572</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91388.36989223277</v>
+      </c>
+      <c r="C2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>91388.36989223285</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="I2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="J2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="N2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="D2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.36989223279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078057</v>
+        <v>-37841.86290078059</v>
       </c>
       <c r="C6" t="n">
         <v>42927.56863076716</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.5686307672</v>
+        <v>42927.56863076721</v>
       </c>
       <c r="E6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="F6" t="n">
         <v>76555.16863076718</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13495.22603166094</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76555.16863076716</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76555.16863076718</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76555.16863076719</v>
+      </c>
+      <c r="N6" t="n">
         <v>76555.16863076715</v>
       </c>
-      <c r="G6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>76555.16863076716</v>
       </c>
-      <c r="I6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13495.22603166092</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76555.16863076719</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>76555.16863076716</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76555.16863076718</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76555.16863076715</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35735,13 +35737,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>43.28534947792182</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,13 +36448,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>55.51629994036219</v>
-      </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N45" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>440041.0145983154</v>
+        <v>337788.7049113787</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.399451438</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667942.033436031</v>
+        <v>5667942.03343603</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>69.05674881342119</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -995,10 +995,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V8" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>241.0142888776591</v>
@@ -1435,7 +1435,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1545,52 +1545,52 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,70 +1606,70 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>190.3453970742849</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>123.6003327477366</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1736,19 +1736,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>132.3757631494407</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1979,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="V18" t="n">
-        <v>100.0376190809312</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>64.38401073897947</v>
       </c>
       <c r="X21" t="n">
-        <v>63.88882306452232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2636,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>45.27093583804391</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>21.03188713646763</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2955,67 +2955,67 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19.7279353865638</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>109.7085981660988</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>203.2913221445022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>132.9689388813999</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>109.364731275353</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3672,58 +3672,58 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3784,31 +3784,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>190.3453970742848</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
         <v>19.28114311021272</v>
@@ -4606,13 +4606,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X5" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4743,19 +4743,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5147,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>487.2836868729568</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>487.2836868729568</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X12" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>761.6974622895962</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>761.6974622895962</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V14" t="n">
-        <v>761.6974622895962</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W14" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>487.2836868729568</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C15" t="n">
-        <v>487.2836868729568</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D15" t="n">
-        <v>487.2836868729568</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E15" t="n">
-        <v>487.2836868729568</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5369,10 +5369,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5384,25 +5384,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2836868729568</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>487.2836868729568</v>
+        <v>494.022625761637</v>
       </c>
       <c r="X15" t="n">
-        <v>487.2836868729568</v>
+        <v>494.022625761637</v>
       </c>
       <c r="Y15" t="n">
-        <v>487.2836868729568</v>
+        <v>494.022625761637</v>
       </c>
     </row>
     <row r="16">
@@ -5454,22 +5454,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5548,19 +5548,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5597,13 +5597,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
         <v>725.4530095217538</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V18" t="n">
-        <v>158.0119685275972</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W18" t="n">
-        <v>158.0119685275972</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>158.0119685275972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5691,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>487.4018176583718</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C23" t="n">
-        <v>487.4018176583718</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D23" t="n">
-        <v>487.4018176583718</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E23" t="n">
-        <v>487.4018176583718</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F23" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>730.8505943024719</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>730.8505943024719</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W23" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X23" t="n">
-        <v>730.8505943024719</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y23" t="n">
-        <v>487.4018176583718</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.01731535111452</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N24" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N24" t="n">
-        <v>725.4530095217538</v>
-      </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6110,10 +6110,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6165,25 +6165,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C27" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
         <v>110.334904905842</v>
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="28">
@@ -6408,25 +6408,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6554,40 +6554,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>790.6398109613051</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>547.1910343172051</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>131.5792353467183</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>441.5762760221259</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6791,40 +6791,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9716273967953</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>352.9716273967953</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>352.9716273967953</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>352.9716273967953</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>352.9716273967953</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>352.9716273967953</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X41" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7523,16 +7523,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
         <v>20.03527576299844</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729608</v>
@@ -7681,19 +7681,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7760,16 +7760,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
         <v>20.03527576299844</v>
@@ -7830,13 +7830,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9017,13 +9017,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O15" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>382.6009056104135</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10202,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2508595994748</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>312.0431814381598</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>368.5691090902119</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,13 +22606,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22682,16 +22682,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22883,10 +22883,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,28 +23102,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0016451065613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>86.73796959247585</v>
@@ -23323,7 +23323,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23433,7 +23433,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,19 +23582,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>21.46887964564732</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.3192200114789</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>181.0016451065613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>327.8432202093908</v>
       </c>
     </row>
     <row r="18">
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>73.91671058399695</v>
       </c>
       <c r="V18" t="n">
-        <v>132.7629680684941</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.5284965833702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23931,10 +23931,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>329.2548215453339</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>187.3109724219401</v>
       </c>
       <c r="X21" t="n">
-        <v>141.8841621389552</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>387.1481103551477</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>103.669688469823</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24302,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>82.43643527161383</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24420,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24505,7 +24505,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24524,22 +24524,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>160.5020493654335</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24776,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>91.20355710002883</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>387.1481103551477</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24970,13 +24970,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>62.9999008222169</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,13 +25013,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>29.50926500492309</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>296.2883231740202</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>92.97244319957488</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>63.34376771296276</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>266.7797710783195</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.3884445891958</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91388.36989223277</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
+        <v>91388.36989223279</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="F2" t="n">
         <v>91388.3698922328</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>91388.36989223285</v>
       </c>
-      <c r="E2" t="n">
+      <c r="H2" t="n">
         <v>91388.36989223283</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="G2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>91388.36989223282</v>
       </c>
-      <c r="I2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.3698922328</v>
-      </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
         <v>91388.3698922328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37841.86290078059</v>
+        <v>-50059.87352082103</v>
       </c>
       <c r="C6" t="n">
-        <v>42927.56863076716</v>
+        <v>30709.55801072668</v>
       </c>
       <c r="D6" t="n">
-        <v>42927.56863076721</v>
+        <v>30709.55801072672</v>
       </c>
       <c r="E6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="F6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="G6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072674</v>
       </c>
       <c r="H6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="I6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="J6" t="n">
-        <v>13495.22603166094</v>
+        <v>1277.215411620486</v>
       </c>
       <c r="K6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="L6" t="n">
-        <v>76555.16863076718</v>
+        <v>64337.15801072669</v>
       </c>
       <c r="M6" t="n">
-        <v>76555.16863076719</v>
+        <v>64337.15801072673</v>
       </c>
       <c r="N6" t="n">
-        <v>76555.16863076715</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="O6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072671</v>
       </c>
       <c r="P6" t="n">
-        <v>76555.16863076716</v>
+        <v>64337.15801072669</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N9" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35737,13 +35737,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O15" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,7 +35974,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9091475161415</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337788.7049113787</v>
+        <v>429790.553494477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5667942.03343603</v>
+        <v>5667942.033436031</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.05241763862484</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>188.9257796665961</v>
       </c>
     </row>
     <row r="4">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>69.05674881342119</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>202.2946864288972</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>75.70046920711947</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X12" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>132.3757631494407</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.39471844666277</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>152.0246714969779</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>23.17871577922039</v>
       </c>
     </row>
     <row r="19">
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>64.38401073897947</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2411,16 +2411,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>29.79900896488263</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>12.80259561020264</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S26" t="n">
-        <v>82.96396779500064</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>175.5171288722966</v>
       </c>
       <c r="X27" t="n">
-        <v>45.27093583804391</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>60.27659161662098</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>109.7085981660988</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3201,40 +3201,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>58.39471844666272</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>59.39647055321002</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,46 +3435,46 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>109.364731275353</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,55 +3754,55 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>82.46119763909351</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>190.3453970742847</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>241.0142888776591</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>33.19332575419072</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4412,46 +4412,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>934.7112791079849</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>934.7112791079849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>934.7112791079849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>706.487660844374</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>471.3355526126313</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y3" t="n">
         <v>20.03527576299844</v>
@@ -4515,19 +4515,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
         <v>262.7299197543128</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C6" t="n">
-        <v>726.0875267598396</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D6" t="n">
-        <v>577.1531170985884</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>417.9156620931329</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="7">
@@ -4758,10 +4758,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4834,16 +4834,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
         <v>749.627473042513</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
         <v>19.28114311021272</v>
@@ -4892,7 +4892,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="10">
@@ -4992,19 +4992,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5159,7 +5159,7 @@
         <v>399.5118995681682</v>
       </c>
       <c r="W12" t="n">
-        <v>156.0631229240681</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X12" t="n">
         <v>19.28114311021272</v>
@@ -5229,13 +5229,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
         <v>262.7299197543128</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V14" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W14" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X14" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y14" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5369,40 +5369,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>494.022625761637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>494.022625761637</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>494.022625761637</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
         <v>19.28114311021272</v>
@@ -5472,16 +5472,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>577.2332497330343</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>518.2486856454962</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>434.8929420806995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>434.8929420806995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>42.69398733164745</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>435.6470747334852</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>227.7955745279523</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="22">
@@ -5895,10 +5895,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V23" t="n">
-        <v>251.810259228364</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.810259228364</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49.38115216564972</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C24" t="n">
-        <v>49.38115216564972</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="D24" t="n">
-        <v>49.38115216564972</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="E24" t="n">
-        <v>49.38115216564972</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="F24" t="n">
-        <v>49.38115216564972</v>
+        <v>285.0671515305841</v>
       </c>
       <c r="G24" t="n">
-        <v>49.38115216564972</v>
+        <v>146.3363261131996</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>32.96719052077889</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X24" t="n">
-        <v>49.38115216564972</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.38115216564972</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S26" t="n">
-        <v>718.7806050553886</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6335,22 +6335,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,13 +6545,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6575,19 +6575,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="31">
@@ -6654,13 +6654,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>495.259035872464</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C32" t="n">
-        <v>495.259035872464</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D32" t="n">
-        <v>495.259035872464</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>495.259035872464</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
         <v>475.3318284112885</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>738.7078125165641</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>495.259035872464</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>495.259035872464</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>495.259035872464</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y32" t="n">
-        <v>495.259035872464</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>552.3930418464681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>441.5762760221259</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>292.6418663608746</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>333.7844730889342</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>90.33569644483418</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>385.8037236438013</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
         <v>20.03527576299844</v>
@@ -7022,46 +7022,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>634.6640077999109</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>399.5118995681682</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>156.0631229240681</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7122,25 +7122,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W38" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X38" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y38" t="n">
-        <v>251.810259228364</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>619.4388494194218</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>619.4388494194218</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>619.4388494194218</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7371,13 +7371,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D41" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E41" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F41" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>358.0940480307835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
         <v>20.03527576299844</v>
@@ -7499,13 +7499,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="43">
@@ -7608,7 +7608,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>223.6192102101089</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.6192102101089</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7730,13 +7730,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7769,10 +7769,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8774,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8783,13 +8783,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P12" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11147,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22549,13 +22549,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>71.10541651401829</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>16.75691611070829</v>
       </c>
     </row>
     <row r="4">
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,7 +22786,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>103.6517501748945</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>118.3023584998409</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22998,13 +22998,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23074,7 +23074,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -23105,13 +23105,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>130.072515996358</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23232,7 +23232,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,13 +23266,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23308,7 +23308,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23317,13 +23317,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X12" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>270.2632538415217</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>345.9756526602163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,10 +23582,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>119.3192200114789</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23712,7 +23712,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>327.8432202093908</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>73.91671058399695</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>182.503979998084</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>329.2548215453339</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24065,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>66.96450839845255</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>187.3109724219401</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>387.1481103551477</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24253,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24299,16 +24299,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>82.43643527161383</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>76.59403724121243</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,16 +24341,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24463,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S26" t="n">
-        <v>126.0561017912447</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>76.17785428862305</v>
       </c>
       <c r="X27" t="n">
-        <v>160.5020493654335</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24764,19 +24764,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>97.36848883877997</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>387.1481103551477</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24976,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>339.503732545394</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>62.9999008222169</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>296.2883231740202</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>113.3120284351057</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>63.34376771296276</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>266.7797710783195</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25718,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>122.6370879404214</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25772,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.3884445891959</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>86.73796959247585</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674309</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>490173.9839674307</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490173.9839674309</v>
+        <v>490173.9839674308</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490173.9839674308</v>
+        <v>490173.9839674307</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>91388.3698922328</v>
       </c>
       <c r="C2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="F2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="I2" t="n">
         <v>91388.36989223279</v>
       </c>
-      <c r="D2" t="n">
+      <c r="J2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="K2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="M2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91388.3698922328</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223285</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.36989223283</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="J2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="K2" t="n">
-        <v>91388.36989223282</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223279</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91388.36989223283</v>
       </c>
       <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
+        <v>91388.3698922328</v>
+      </c>
+      <c r="P2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="P2" t="n">
-        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50059.87352082103</v>
+        <v>-39063.6639627846</v>
       </c>
       <c r="C6" t="n">
-        <v>30709.55801072668</v>
+        <v>41705.76756876313</v>
       </c>
       <c r="D6" t="n">
-        <v>30709.55801072672</v>
+        <v>41705.76756876312</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="F6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="G6" t="n">
-        <v>64337.15801072674</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="H6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="I6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.3675687631</v>
       </c>
       <c r="J6" t="n">
-        <v>1277.215411620486</v>
+        <v>12273.42496965692</v>
       </c>
       <c r="K6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="L6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876315</v>
       </c>
       <c r="M6" t="n">
-        <v>64337.15801072673</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="N6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876313</v>
       </c>
       <c r="O6" t="n">
-        <v>64337.15801072671</v>
+        <v>75333.36756876312</v>
       </c>
       <c r="P6" t="n">
-        <v>64337.15801072669</v>
+        <v>75333.36756876313</v>
       </c>
     </row>
   </sheetData>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N9" t="n">
         <v>91.0829537758999</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35503,13 +35503,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P12" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35737,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36208,7 +36208,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
